--- a/docs/StructureDefinition-us-core-observation-survey.xlsx
+++ b/docs/StructureDefinition-us-core-observation-survey.xlsx
@@ -259,7 +259,7 @@
     <t/>
   </si>
   <si>
-    <t>Survey Item Observation</t>
+    <t>Survey Observation</t>
   </si>
   <si>
     <t>Profile for Observations to record responses from  a survey or questionnaire.</t>
@@ -667,7 +667,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-survey-codes</t>
+    <t>http://www.fhir.org/guides/healthedata1-sandbox//ValueSet/us-core-survey-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1783,7 +1783,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.33203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
